--- a/datadesign/clubs.xlsx
+++ b/datadesign/clubs.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="clubs" sheetId="1" r:id="rId1"/>
     <sheet name="club_pass" sheetId="2" r:id="rId2"/>
     <sheet name="officers" sheetId="3" r:id="rId3"/>
+    <sheet name="CC" sheetId="4" r:id="rId4"/>
+    <sheet name="CL" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CC!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CL!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clubs!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">officers!$A$1:$G$1</definedName>
   </definedNames>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="113">
   <si>
     <t>clubId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,13 +227,223 @@
   <si>
     <t>VICE PRESIDEND MEMBERSHIP</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_type</t>
+  </si>
+  <si>
+    <t>cc_name</t>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Ice Breaker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organize Your Speech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Get to the Point</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to Say It</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Body Speaks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vocal Variety</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research Your Topic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Comfortable With Visual Aids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persuade With Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspire Your Audience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>table tabic speaker</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>listening</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ah-counter</t>
+  </si>
+  <si>
+    <t>grammarain</t>
+  </si>
+  <si>
+    <t>critical thinking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grammarian</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>toastmaster</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>TTM</t>
+  </si>
+  <si>
+    <t>help organize a club speech contest</t>
+  </si>
+  <si>
+    <t>help organize a club event</t>
+  </si>
+  <si>
+    <t>help organize a club membership campaign or contest</t>
+  </si>
+  <si>
+    <t>help organize a club pulbic relations campaign</t>
+  </si>
+  <si>
+    <t>help produce a club news letter</t>
+  </si>
+  <si>
+    <t>Assist the club webmaster</t>
+  </si>
+  <si>
+    <t>Be freiend a club guest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair a club membership campaign or contest</t>
+  </si>
+  <si>
+    <t>chair a club public relations campaign</t>
+  </si>
+  <si>
+    <t>mentor a new member with the first three projects in CC</t>
+  </si>
+  <si>
+    <t>mentor an existing member with his or her next three speaking or leadership projects</t>
+  </si>
+  <si>
+    <t>Serve on the guidance committee of a HPL project.</t>
+  </si>
+  <si>
+    <t>chair a club relations cammpaign</t>
+  </si>
+  <si>
+    <t>chair a club speech contest</t>
+  </si>
+  <si>
+    <t>chair a club special event</t>
+  </si>
+  <si>
+    <t>serve as club newsletter editor or webmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical thinking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving feedback </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan and implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">organization and delegation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">facilitation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">motivation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mentoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">team building </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +486,15 @@
       <name val="Inherit"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -302,7 +525,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +542,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -627,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -908,5 +1137,815 @@
     <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="44.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" tooltip="Toastmasters Speech 2: Organize Your Speech" display="http://sixminutes.dlugan.com/toastmasters-speech-2-organize-your-speech/"/>
+    <hyperlink ref="C4" r:id="rId2" tooltip="Toastmasters Speech 3: Get to the Point" display="http://sixminutes.dlugan.com/toastmasters-speech-3-get-to-the-point/"/>
+    <hyperlink ref="C5" r:id="rId3" tooltip="Toastmasters Speech 4: How to Say It" display="http://sixminutes.dlugan.com/toastmasters-speech-4-how-to-say-it/"/>
+    <hyperlink ref="C6" r:id="rId4" tooltip="Toastmasters Speech 5: Your Body Speaks" display="http://sixminutes.dlugan.com/toastmasters-speech-5-your-body-speaks/"/>
+    <hyperlink ref="C7" r:id="rId5" tooltip="Toastmasters Speech 6: Vocal Variety" display="http://sixminutes.dlugan.com/toastmasters-speech-6-vocal-variety/"/>
+    <hyperlink ref="C8" r:id="rId6" tooltip="Toastmasters Speech 7: Research Your Topic" display="http://sixminutes.dlugan.com/toastmasters-speech-7-research-your-topic/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="99.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="54.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8">
+        <v>7</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8">
+        <v>7</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8">
+        <v>8</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8">
+        <v>8</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8">
+        <v>8</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8">
+        <v>8</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8">
+        <v>9</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8">
+        <v>9</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8">
+        <v>9</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8">
+        <v>10</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8">
+        <v>10</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8">
+        <v>10</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8">
+        <v>10</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8">
+        <v>10</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8">
+        <v>10</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datadesign/clubs.xlsx
+++ b/datadesign/clubs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="clubs" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="officers" sheetId="3" r:id="rId3"/>
     <sheet name="CC" sheetId="4" r:id="rId4"/>
     <sheet name="CL" sheetId="5" r:id="rId5"/>
+    <sheet name="members" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CC!$A$1:$D$1</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
   <si>
     <t>clubId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,6 +438,10 @@
   </si>
   <si>
     <t xml:space="preserve">team building </t>
+  </si>
+  <si>
+    <t>mem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -938,7 +943,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1146,7 +1151,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1300,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1948,4 +1953,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>